--- a/Data/vision_industry_market_size_worldwide.xlsx
+++ b/Data/vision_industry_market_size_worldwide.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
   <si>
     <t xml:space="preserve">2008</t>
   </si>
@@ -60,32 +66,27 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +130,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,11 +140,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,7 +156,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -165,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -177,82 +178,90 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>9.9</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>15.7</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>17.1</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>18.7</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>20.3</v>
       </c>
     </row>
